--- a/cmn/0300_MainControl/doc/MainControl.xlsx
+++ b/cmn/0300_MainControl/doc/MainControl.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C956B1C5-9F84-40C6-9413-90FD704DE78A}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E592C654-70BD-4AA3-9EB7-0DE83FA46564}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,22 +33,6 @@
     <t>post_wait</t>
   </si>
   <si>
-    <t xml:space="preserve">:output=MainControl_created.cs_x000D_
-::tempfunc=template-func.txt_x000D_
-:enc=utf-8_x000D_
-::_x000D_
-public partial class MainControl : StateManager {_x000D_
-_x000D_
-    public void Start()_x000D_
-    {_x000D_
-        Goto(S_START);_x000D_
-    }_x000D_
-_x000D_
-    $contents2$_x000D_
-}_x000D_
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">/*_x000D_
     [[state]]_x000D_
     [[state-cmt]]_x000D_
@@ -481,8 +465,8 @@
     <t>100008</t>
   </si>
   <si>
-    <t xml:space="preserve">; The setting was created automatically. 2018/08/03 16:44:39
-; * pssgEditor version : 0.8.0.26aef6b743ebec1f242ef0bfbac88333d42a172f
+    <t xml:space="preserve">; The setting was created automatically. 2018/08/06 11:15:32
+; * pssgEditor version : 0.8.0.b2014240f914ca599311da9a66f8116e5bc87e25
 psggfile=@@@
 MainControl.psgg
 @@@
@@ -499,7 +483,7 @@
 c_contents=1
 force_display_outpin=0
 last_action=@@@
-Changed an arrow direction
+Moved a state
 @@@
 target_pathdir=@@@
 /
@@ -507,7 +491,7 @@
 state_location_list=@@@
 @@@
 fillter_state_location_list=@@@
-[{"Key":"\/","Value":[{"Key":"S_START","Value":{"x":11,"y":17}},{"Key":"S_END","Value":{"x":1201,"y":168}},{"Key":"S_DISPEROR","Value":{"x":1068,"y":425}},{"Key":"S_WAIT_BUT","Value":{"x":781,"y":157}},{"Key":"S_UI_START","Value":{"x":573,"y":158}},{"Key":"S_BASE_INIT","Value":{"x":378,"y":148}},{"Key":"S_WAIT_BASE_READY","Value":{"x":205,"y":156}},{"Key":"S_EXEC_DBGMENU","Value":{"x":988,"y":161}},{"Key":"S_0001","Value":{"x":165,"y":409}},{"Key":"S_APP_INIT","Value":{"x":165,"y":409}},{"Key":"S_APP_INIT_START","Value":{"x":29,"y":162}}]}]
+[{"Key":"\/","Value":[{"Key":"S_START","Value":{"x":11,"y":17}},{"Key":"S_END","Value":{"x":1201,"y":168}},{"Key":"S_DISPEROR","Value":{"x":1006,"y":417}},{"Key":"S_WAIT_BUT","Value":{"x":781,"y":157}},{"Key":"S_UI_START","Value":{"x":573,"y":158}},{"Key":"S_BASE_INIT","Value":{"x":390,"y":158}},{"Key":"S_WAIT_BASE_READY","Value":{"x":210,"y":166}},{"Key":"S_EXEC_DBGMENU","Value":{"x":988,"y":161}},{"Key":"S_APP_INIT_START","Value":{"x":29,"y":162}}]}]
 @@@
 linecolor_data=@@@
 [{"color":{"knownColor":0,"name":null,"state":2,"value":4285493103},"pattern":"BTN_BY.\\("}]
@@ -516,6 +500,7 @@
 external_command=@@@
 @@@
 source_editor=@@@
+"C:\Program Files (x86)\Microsoft Visual Studio 14.0\Common7\IDE\devenv.exe" /Edit %1
 @@@
 label_show=0
 label_text=@@@
@@ -523,6 +508,7 @@
 @@@
 option_delete_thisstring=0
 option_delete_br_string=0
+option_delete_bracket_string=0
 font_name=@@@
 MS UI Gothic
 @@@
@@ -531,6 +517,28 @@
 state_height=20
 comment_block_height=45
 line_space=0
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">:output=MainControl_created.cs_x000D_
+::tempfunc=template-func.txt_x000D_
+:enc=utf-8_x000D_
+::_x000D_
+public partial class MainControl : StateManager {_x000D_
+_x000D_
+    public override void Start()_x000D_
+    {_x000D_
+        Goto(S_START);_x000D_
+    }_x000D_
+_x000D_
+    public override bool IsEnd()_x000D_
+    {_x000D_
+        return CheckState(S_END);_x000D_
+    }_x000D_
+_x000D_
+_x000D_
+    $contents2$_x000D_
+}_x000D_
 </t>
   </si>
 </sst>
@@ -1266,129 +1274,129 @@
       <c r="D1" s="14"/>
       <c r="E1" s="13"/>
       <c r="F1" s="15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G1" s="15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H1" s="15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I1" s="15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J1" s="15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K1" s="15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L1" s="15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:12" s="6" customFormat="1">
       <c r="A2" s="16"/>
       <c r="B2" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="D2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="E2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="F2" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="I2" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="G2" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="H2" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="I2" s="17" t="s">
+      <c r="J2" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="17" t="s">
-        <v>12</v>
-      </c>
       <c r="K2" s="17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L2" s="17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:12" s="7" customFormat="1" ht="37.5">
       <c r="A3" s="18"/>
       <c r="B3" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="D3" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="E3" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="19" t="s">
+      <c r="F3" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="G3" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="H3" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="I3" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="G3" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="H3" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="I3" s="20" t="s">
+      <c r="J3" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="J3" s="20" t="s">
-        <v>18</v>
-      </c>
       <c r="K3" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L3" s="20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:12" s="8" customFormat="1" ht="18.75" customHeight="1">
       <c r="A4" s="21"/>
       <c r="B4" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="21" t="s">
-        <v>20</v>
-      </c>
       <c r="D4" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G4" s="22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H4" s="22" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I4" s="22"/>
       <c r="J4" s="22" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K4" s="22" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L4" s="22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:12" s="9" customFormat="1">
@@ -1408,33 +1416,33 @@
     <row r="6" spans="1:12" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A6" s="23"/>
       <c r="B6" s="27" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C6" s="28"/>
       <c r="D6" s="23"/>
       <c r="E6" s="25"/>
       <c r="F6" s="26"/>
       <c r="G6" s="26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H6" s="26" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I6" s="26"/>
       <c r="J6" s="26" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K6" s="26" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L6" s="26" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:12" s="9" customFormat="1">
       <c r="A7" s="23"/>
       <c r="B7" s="29" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C7" s="23"/>
       <c r="D7" s="23"/>
@@ -1450,7 +1458,7 @@
     <row r="8" spans="1:12" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A8" s="23"/>
       <c r="B8" s="27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C8" s="23"/>
       <c r="D8" s="23"/>
@@ -1466,7 +1474,7 @@
     <row r="9" spans="1:12" s="9" customFormat="1">
       <c r="A9" s="23"/>
       <c r="B9" s="29" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9" s="23"/>
       <c r="D9" s="23"/>
@@ -1482,16 +1490,16 @@
     <row r="10" spans="1:12" s="9" customFormat="1">
       <c r="A10" s="23"/>
       <c r="B10" s="27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" s="31"/>
       <c r="D10" s="31"/>
       <c r="E10" s="32"/>
       <c r="F10" s="26" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G10" s="26" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H10" s="26"/>
       <c r="I10" s="26"/>
@@ -1502,7 +1510,7 @@
     <row r="11" spans="1:12" s="9" customFormat="1">
       <c r="A11" s="23"/>
       <c r="B11" s="29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C11" s="31"/>
       <c r="D11" s="31"/>
@@ -1534,7 +1542,7 @@
     <row r="13" spans="1:12" s="9" customFormat="1">
       <c r="A13" s="23"/>
       <c r="B13" s="29" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C13" s="23"/>
       <c r="D13" s="23"/>
@@ -1550,7 +1558,7 @@
     <row r="14" spans="1:12" s="11" customFormat="1" ht="93.75">
       <c r="A14" s="33"/>
       <c r="B14" s="33" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C14" s="33"/>
       <c r="D14" s="33"/>
@@ -1559,7 +1567,7 @@
       <c r="G14" s="34"/>
       <c r="H14" s="34"/>
       <c r="I14" s="34" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J14" s="34"/>
       <c r="K14" s="34"/>
@@ -1568,7 +1576,7 @@
     <row r="15" spans="1:12" s="12" customFormat="1" ht="18.75" customHeight="1">
       <c r="A15" s="35"/>
       <c r="B15" s="35" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C15" s="35"/>
       <c r="D15" s="35"/>
@@ -1577,7 +1585,7 @@
       <c r="G15" s="36"/>
       <c r="H15" s="36"/>
       <c r="I15" s="36" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J15" s="36"/>
       <c r="K15" s="36"/>
@@ -1600,65 +1608,65 @@
     <row r="17" spans="1:12" s="3" customFormat="1" ht="56.25">
       <c r="A17" s="37"/>
       <c r="B17" s="38" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C17" s="37"/>
       <c r="D17" s="37"/>
       <c r="E17" s="37"/>
       <c r="F17" s="37" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G17" s="37" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H17" s="37" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I17" s="37" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J17" s="37" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K17" s="37" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L17" s="37" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:12" s="3" customFormat="1">
       <c r="A18" s="37"/>
       <c r="B18" s="38" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C18" s="37"/>
       <c r="D18" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="E18" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="E18" s="37" t="s">
+      <c r="F18" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="G18" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="H18" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="I18" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="F18" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="G18" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="H18" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="I18" s="37" t="s">
+      <c r="J18" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="J18" s="37" t="s">
-        <v>37</v>
-      </c>
       <c r="K18" s="37" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L18" s="37" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -1678,7 +1686,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="409.5">
       <c r="A1" s="39" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1698,7 +1706,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="409.5">
       <c r="A1" s="39" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1718,7 +1726,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="409.5">
       <c r="A1" s="39" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1737,7 +1745,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="409.5">
       <c r="A1" s="39" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1756,7 +1764,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="409.5">
       <c r="A1" s="39" t="s">
-        <v>2</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/cmn/0300_MainControl/doc/MainControl.xlsx
+++ b/cmn/0300_MainControl/doc/MainControl.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E592C654-70BD-4AA3-9EB7-0DE83FA46564}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7457A569-7E65-4646-8F33-CBC33A8C9C54}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="53">
   <si>
     <t>thumbnail</t>
   </si>
@@ -314,12 +314,6 @@
     <t>S_END</t>
   </si>
   <si>
-    <t>S_WAIT_BUT</t>
-  </si>
-  <si>
-    <t>S_DISPEROR</t>
-  </si>
-  <si>
     <t>state-cmt</t>
   </si>
   <si>
@@ -332,12 +326,6 @@
     <t>終了</t>
   </si>
   <si>
-    <t>Wait for new button</t>
-  </si>
-  <si>
-    <t>Diplay Error</t>
-  </si>
-  <si>
     <t>nextstate</t>
   </si>
   <si>
@@ -345,9 +333,6 @@
   </si>
   <si>
     <t>init</t>
-  </si>
-  <si>
-    <t>disp_error();</t>
   </si>
   <si>
     <t>init-cmt</t>
@@ -391,12 +376,6 @@
     <t>100002</t>
   </si>
   <si>
-    <t>100003</t>
-  </si>
-  <si>
-    <t>100004</t>
-  </si>
-  <si>
     <t>100005</t>
   </si>
   <si>
@@ -434,25 +413,6 @@
     <t>base_isready()</t>
   </si>
   <si>
-    <t>S_EXEC_DBGMENU</t>
-  </si>
-  <si>
-    <t>デバッグメニューの実行</t>
-  </si>
-  <si>
-    <t>br_DBGMENU(S_EXEC_DBGMENU);
-br_BUT05(S_DISPEROR);</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>100007</t>
-  </si>
-  <si>
-    <t>exec_dbgmenu();</t>
-  </si>
-  <si>
     <t>S_APP_INIT_START</t>
   </si>
   <si>
@@ -465,7 +425,44 @@
     <t>100008</t>
   </si>
   <si>
-    <t xml:space="preserve">; The setting was created automatically. 2018/08/06 11:15:32
+    <t xml:space="preserve">:output=MainControl_created.cs_x000D_
+::tempfunc=template-func.txt_x000D_
+:enc=utf-8_x000D_
+::_x000D_
+public partial class MainControl : StateManager {_x000D_
+_x000D_
+    public override void Start()_x000D_
+    {_x000D_
+        Goto(S_START);_x000D_
+    }_x000D_
+_x000D_
+    public override bool IsEnd()_x000D_
+    {_x000D_
+        return CheckState(S_END);_x000D_
+    }_x000D_
+_x000D_
+_x000D_
+    $contents2$_x000D_
+}_x000D_
+</t>
+  </si>
+  <si>
+    <t>S_EVENT_PROC</t>
+  </si>
+  <si>
+    <t>イベント処理</t>
+  </si>
+  <si>
+    <t>check_event_and_dispatch();</t>
+  </si>
+  <si>
+    <t>100009</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t xml:space="preserve">; The setting was created automatically. 2018/08/06 15:42:15
 ; * pssgEditor version : 0.8.0.b2014240f914ca599311da9a66f8116e5bc87e25
 psggfile=@@@
 MainControl.psgg
@@ -491,7 +488,7 @@
 state_location_list=@@@
 @@@
 fillter_state_location_list=@@@
-[{"Key":"\/","Value":[{"Key":"S_START","Value":{"x":11,"y":17}},{"Key":"S_END","Value":{"x":1201,"y":168}},{"Key":"S_DISPEROR","Value":{"x":1006,"y":417}},{"Key":"S_WAIT_BUT","Value":{"x":781,"y":157}},{"Key":"S_UI_START","Value":{"x":573,"y":158}},{"Key":"S_BASE_INIT","Value":{"x":390,"y":158}},{"Key":"S_WAIT_BASE_READY","Value":{"x":210,"y":166}},{"Key":"S_EXEC_DBGMENU","Value":{"x":988,"y":161}},{"Key":"S_APP_INIT_START","Value":{"x":29,"y":162}}]}]
+[{"Key":"\/","Value":[{"Key":"S_START","Value":{"x":11,"y":17}},{"Key":"S_END","Value":{"x":1201,"y":168}},{"Key":"S_DISPEROR","Value":{"x":1006,"y":417}},{"Key":"S_WAIT_BUT","Value":{"x":820,"y":154}},{"Key":"S_UI_START","Value":{"x":573,"y":158}},{"Key":"S_BASE_INIT","Value":{"x":390,"y":158}},{"Key":"S_WAIT_BASE_READY","Value":{"x":210,"y":166}},{"Key":"S_EXEC_DBGMENU","Value":{"x":988,"y":161}},{"Key":"S_APP_INIT_START","Value":{"x":29,"y":162}},{"Key":"S_EVENT_PROC","Value":{"x":826,"y":154}}]}]
 @@@
 linecolor_data=@@@
 [{"color":{"knownColor":0,"name":null,"state":2,"value":4285493103},"pattern":"BTN_BY.\\("}]
@@ -508,7 +505,7 @@
 @@@
 option_delete_thisstring=0
 option_delete_br_string=0
-option_delete_bracket_string=0
+option_delete_bracket_string=1
 font_name=@@@
 MS UI Gothic
 @@@
@@ -517,28 +514,6 @@
 state_height=20
 comment_block_height=45
 line_space=0
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">:output=MainControl_created.cs_x000D_
-::tempfunc=template-func.txt_x000D_
-:enc=utf-8_x000D_
-::_x000D_
-public partial class MainControl : StateManager {_x000D_
-_x000D_
-    public override void Start()_x000D_
-    {_x000D_
-        Goto(S_START);_x000D_
-    }_x000D_
-_x000D_
-    public override bool IsEnd()_x000D_
-    {_x000D_
-        return CheckState(S_END);_x000D_
-    }_x000D_
-_x000D_
-_x000D_
-    $contents2$_x000D_
-}_x000D_
 </t>
   </si>
 </sst>
@@ -1251,7 +1226,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L18"/>
+  <dimension ref="A1:M18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
@@ -1265,7 +1240,7 @@
     <col min="1" max="16384" width="15.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="4" customFormat="1" ht="144.75" customHeight="1">
+    <row r="1" spans="1:13" s="4" customFormat="1" ht="144.75" customHeight="1">
       <c r="A1" s="13"/>
       <c r="B1" s="14" t="s">
         <v>0</v>
@@ -1283,19 +1258,22 @@
         <v>5</v>
       </c>
       <c r="I1" s="15" t="s">
-        <v>5</v>
+        <v>51</v>
       </c>
       <c r="J1" s="15" t="s">
-        <v>5</v>
+        <v>51</v>
       </c>
       <c r="K1" s="15" t="s">
-        <v>5</v>
+        <v>51</v>
       </c>
       <c r="L1" s="15" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" s="6" customFormat="1">
+      <c r="M1" s="15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" s="6" customFormat="1">
       <c r="A2" s="16"/>
       <c r="B2" s="16" t="s">
         <v>6</v>
@@ -1310,96 +1288,103 @@
         <v>9</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="G2" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="J2" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="K2" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="L2" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="H2" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="I2" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="K2" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="L2" s="17" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" s="7" customFormat="1" ht="37.5">
+      <c r="M2" s="17" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" s="7" customFormat="1" ht="37.5">
       <c r="A3" s="18"/>
       <c r="B3" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="E3" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="19" t="s">
-        <v>15</v>
-      </c>
       <c r="F3" s="20" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="G3" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="H3" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="I3" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="J3" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="K3" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="L3" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="H3" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="I3" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="J3" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="K3" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="L3" s="20" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" s="8" customFormat="1" ht="18.75" customHeight="1">
+      <c r="M3" s="20" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" s="8" customFormat="1" ht="18.75" customHeight="1">
       <c r="A4" s="21"/>
       <c r="B4" s="21" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="22" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G4" s="22" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H4" s="22" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="I4" s="22"/>
       <c r="J4" s="22" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="K4" s="22" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="L4" s="22" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" s="9" customFormat="1">
+        <v>39</v>
+      </c>
+      <c r="M4" s="22"/>
+    </row>
+    <row r="5" spans="1:13" s="9" customFormat="1">
       <c r="A5" s="23"/>
       <c r="B5" s="24"/>
       <c r="C5" s="23"/>
@@ -1412,37 +1397,39 @@
       <c r="J5" s="26"/>
       <c r="K5" s="26"/>
       <c r="L5" s="26"/>
-    </row>
-    <row r="6" spans="1:12" s="9" customFormat="1" ht="18.75" customHeight="1">
+      <c r="M5" s="26"/>
+    </row>
+    <row r="6" spans="1:13" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A6" s="23"/>
       <c r="B6" s="27" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C6" s="28"/>
       <c r="D6" s="23"/>
       <c r="E6" s="25"/>
       <c r="F6" s="26"/>
       <c r="G6" s="26" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="H6" s="26" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="I6" s="26"/>
       <c r="J6" s="26" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="K6" s="26" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="L6" s="26" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" s="9" customFormat="1">
+        <v>44</v>
+      </c>
+      <c r="M6" s="26"/>
+    </row>
+    <row r="7" spans="1:13" s="9" customFormat="1">
       <c r="A7" s="23"/>
       <c r="B7" s="29" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C7" s="23"/>
       <c r="D7" s="23"/>
@@ -1454,11 +1441,12 @@
       <c r="J7" s="26"/>
       <c r="K7" s="26"/>
       <c r="L7" s="26"/>
-    </row>
-    <row r="8" spans="1:12" s="9" customFormat="1" ht="18.75" customHeight="1">
+      <c r="M7" s="26"/>
+    </row>
+    <row r="8" spans="1:13" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A8" s="23"/>
       <c r="B8" s="27" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C8" s="23"/>
       <c r="D8" s="23"/>
@@ -1470,11 +1458,14 @@
       <c r="J8" s="26"/>
       <c r="K8" s="26"/>
       <c r="L8" s="26"/>
-    </row>
-    <row r="9" spans="1:12" s="9" customFormat="1">
+      <c r="M8" s="26" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" s="9" customFormat="1">
       <c r="A9" s="23"/>
       <c r="B9" s="29" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C9" s="23"/>
       <c r="D9" s="23"/>
@@ -1486,31 +1477,33 @@
       <c r="J9" s="26"/>
       <c r="K9" s="26"/>
       <c r="L9" s="26"/>
-    </row>
-    <row r="10" spans="1:12" s="9" customFormat="1">
+      <c r="M9" s="26"/>
+    </row>
+    <row r="10" spans="1:13" s="9" customFormat="1">
       <c r="A10" s="23"/>
       <c r="B10" s="27" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C10" s="31"/>
       <c r="D10" s="31"/>
       <c r="E10" s="32"/>
       <c r="F10" s="26" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G10" s="26" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="H10" s="26"/>
       <c r="I10" s="26"/>
       <c r="J10" s="26"/>
       <c r="K10" s="26"/>
       <c r="L10" s="26"/>
-    </row>
-    <row r="11" spans="1:12" s="9" customFormat="1">
+      <c r="M10" s="26"/>
+    </row>
+    <row r="11" spans="1:13" s="9" customFormat="1">
       <c r="A11" s="23"/>
       <c r="B11" s="29" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C11" s="31"/>
       <c r="D11" s="31"/>
@@ -1522,8 +1515,9 @@
       <c r="J11" s="26"/>
       <c r="K11" s="26"/>
       <c r="L11" s="26"/>
-    </row>
-    <row r="12" spans="1:12" s="9" customFormat="1">
+      <c r="M11" s="26"/>
+    </row>
+    <row r="12" spans="1:13" s="9" customFormat="1">
       <c r="A12" s="23"/>
       <c r="B12" s="27" t="s">
         <v>1</v>
@@ -1538,11 +1532,12 @@
       <c r="J12" s="26"/>
       <c r="K12" s="26"/>
       <c r="L12" s="26"/>
-    </row>
-    <row r="13" spans="1:12" s="9" customFormat="1">
+      <c r="M12" s="26"/>
+    </row>
+    <row r="13" spans="1:13" s="9" customFormat="1">
       <c r="A13" s="23"/>
       <c r="B13" s="29" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C13" s="23"/>
       <c r="D13" s="23"/>
@@ -1554,11 +1549,12 @@
       <c r="J13" s="26"/>
       <c r="K13" s="26"/>
       <c r="L13" s="26"/>
-    </row>
-    <row r="14" spans="1:12" s="11" customFormat="1" ht="93.75">
+      <c r="M13" s="26"/>
+    </row>
+    <row r="14" spans="1:13" s="11" customFormat="1">
       <c r="A14" s="33"/>
       <c r="B14" s="33" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C14" s="33"/>
       <c r="D14" s="33"/>
@@ -1572,11 +1568,12 @@
       <c r="J14" s="34"/>
       <c r="K14" s="34"/>
       <c r="L14" s="34"/>
-    </row>
-    <row r="15" spans="1:12" s="12" customFormat="1" ht="18.75" customHeight="1">
+      <c r="M14" s="34"/>
+    </row>
+    <row r="15" spans="1:13" s="12" customFormat="1" ht="18.75" customHeight="1">
       <c r="A15" s="35"/>
       <c r="B15" s="35" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C15" s="35"/>
       <c r="D15" s="35"/>
@@ -1585,13 +1582,14 @@
       <c r="G15" s="36"/>
       <c r="H15" s="36"/>
       <c r="I15" s="36" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J15" s="36"/>
       <c r="K15" s="36"/>
       <c r="L15" s="36"/>
-    </row>
-    <row r="16" spans="1:12" s="3" customFormat="1">
+      <c r="M15" s="36"/>
+    </row>
+    <row r="16" spans="1:13" s="3" customFormat="1">
       <c r="A16" s="37"/>
       <c r="B16" s="37"/>
       <c r="C16" s="37"/>
@@ -1604,69 +1602,76 @@
       <c r="J16" s="37"/>
       <c r="K16" s="37"/>
       <c r="L16" s="37"/>
-    </row>
-    <row r="17" spans="1:12" s="3" customFormat="1" ht="56.25">
+      <c r="M16" s="37"/>
+    </row>
+    <row r="17" spans="1:13" s="3" customFormat="1" ht="56.25">
       <c r="A17" s="37"/>
       <c r="B17" s="38" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C17" s="37"/>
       <c r="D17" s="37"/>
       <c r="E17" s="37"/>
       <c r="F17" s="37" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="G17" s="37" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="H17" s="37" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="I17" s="37" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="J17" s="37" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="K17" s="37" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="L17" s="37" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" s="3" customFormat="1">
+        <v>26</v>
+      </c>
+      <c r="M17" s="37" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" s="3" customFormat="1">
       <c r="A18" s="37"/>
       <c r="B18" s="38" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C18" s="37"/>
       <c r="D18" s="37" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E18" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="F18" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="F18" s="38" t="s">
-        <v>37</v>
-      </c>
-      <c r="G18" s="37" t="s">
-        <v>37</v>
-      </c>
-      <c r="H18" s="37" t="s">
-        <v>41</v>
-      </c>
       <c r="I18" s="37" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="J18" s="37" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="K18" s="37" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="L18" s="37" t="s">
-        <v>58</v>
+        <v>45</v>
+      </c>
+      <c r="M18" s="37" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1686,7 +1691,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="409.5">
       <c r="A1" s="39" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -1764,7 +1769,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="409.5">
       <c r="A1" s="39" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
